--- a/converted_files/834/X220-enroll-employee-in-multiple-health-care-insurance-products.xlsx
+++ b/converted_files/834/X220-enroll-employee-in-multiple-health-care-insurance-products.xlsx
@@ -2170,7 +2170,7 @@
     <row r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>685d5721e29351212dc46b5e</t>
+          <t>690141eb7c0fb18b049a0240</t>
         </is>
       </c>
       <c r="B2" s="3" t="inlineStr">
@@ -2762,7 +2762,7 @@
     <row r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>685d5721e29351212dc46b5e</t>
+          <t>690141eb7c0fb18b049a0240</t>
         </is>
       </c>
       <c r="B3" s="3" t="inlineStr">
@@ -3338,7 +3338,7 @@
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>685d5721e29351212dc46b5e</t>
+          <t>690141eb7c0fb18b049a0240</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
